--- a/Code/Results/Cases/Case_5_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.938251350698124</v>
+        <v>0.3674614980064348</v>
       </c>
       <c r="C2">
-        <v>0.3851108608772051</v>
+        <v>0.1346372942845164</v>
       </c>
       <c r="D2">
-        <v>0.06674215183076271</v>
+        <v>0.06677200631255076</v>
       </c>
       <c r="E2">
-        <v>1.368732398517366</v>
+        <v>0.4060931560985637</v>
       </c>
       <c r="F2">
-        <v>2.512317977743663</v>
+        <v>1.862171915237468</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.605348955805624</v>
+        <v>1.315761505247679</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.320083094367988</v>
+        <v>0.4976014749059061</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8072827098243067</v>
+        <v>0.3359955865645929</v>
       </c>
       <c r="C3">
-        <v>0.3307272522360449</v>
+        <v>0.1206964374743222</v>
       </c>
       <c r="D3">
-        <v>0.06585579013910348</v>
+        <v>0.06609435825877341</v>
       </c>
       <c r="E3">
-        <v>1.170122558870233</v>
+        <v>0.3542110107288039</v>
       </c>
       <c r="F3">
-        <v>2.263467010874095</v>
+        <v>1.797652293064999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.468311740862219</v>
+        <v>1.279320014550251</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.135040915033841</v>
+        <v>0.4521574689581485</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7281531654088838</v>
+        <v>0.3169488502687443</v>
       </c>
       <c r="C4">
-        <v>0.298017157463164</v>
+        <v>0.1122080978610995</v>
       </c>
       <c r="D4">
-        <v>0.06533787894987242</v>
+        <v>0.06567230349913444</v>
       </c>
       <c r="E4">
-        <v>1.051256509466057</v>
+        <v>0.3224739158650181</v>
       </c>
       <c r="F4">
-        <v>2.114682194505107</v>
+        <v>1.75875393034174</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.386525191749072</v>
+        <v>1.257351274567412</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.023400741766466</v>
+        <v>0.424592391364115</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6961815493119161</v>
+        <v>0.3092554506760052</v>
       </c>
       <c r="C5">
-        <v>0.2848332816328139</v>
+        <v>0.1087665882746478</v>
       </c>
       <c r="D5">
-        <v>0.06513237670939276</v>
+        <v>0.06549876890357709</v>
       </c>
       <c r="E5">
-        <v>1.003468291631549</v>
+        <v>0.3095682165934761</v>
       </c>
       <c r="F5">
-        <v>2.054943875634677</v>
+        <v>1.743081029428765</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.353722342362914</v>
+        <v>1.248499934283075</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9783286191502043</v>
+        <v>0.4134434422689708</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6908879079070118</v>
+        <v>0.3079820794124544</v>
       </c>
       <c r="C6">
-        <v>0.2826522086146781</v>
+        <v>0.1081961771710098</v>
       </c>
       <c r="D6">
-        <v>0.0650985594021769</v>
+        <v>0.06546985916762793</v>
       </c>
       <c r="E6">
-        <v>0.9955690141927818</v>
+        <v>0.3074268207168132</v>
       </c>
       <c r="F6">
-        <v>2.045075098220821</v>
+        <v>1.740489285127637</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.348305384881044</v>
+        <v>1.24703624971238</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9708678685024665</v>
+        <v>0.4115972184579277</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7277209357898755</v>
+        <v>0.3168448184519548</v>
       </c>
       <c r="C7">
-        <v>0.2978387970762526</v>
+        <v>0.11216161388964</v>
       </c>
       <c r="D7">
-        <v>0.0653350863282931</v>
+        <v>0.06566996945730708</v>
       </c>
       <c r="E7">
-        <v>1.050609540760121</v>
+        <v>0.3222997572284498</v>
       </c>
       <c r="F7">
-        <v>2.113873073740265</v>
+        <v>1.758541839760355</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.386080755369051</v>
+        <v>1.257231494432844</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.022791267918223</v>
+        <v>0.4244416935987658</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8927955186431689</v>
+        <v>0.3565550016713814</v>
       </c>
       <c r="C8">
-        <v>0.3662016558822074</v>
+        <v>0.1298154225431745</v>
       </c>
       <c r="D8">
-        <v>0.0664303922355316</v>
+        <v>0.06653956872931843</v>
       </c>
       <c r="E8">
-        <v>1.299533102271823</v>
+        <v>0.3881780573897942</v>
       </c>
       <c r="F8">
-        <v>2.425608632148723</v>
+        <v>1.839775648506262</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.557567922895927</v>
+        <v>1.30311142993385</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.255822961687556</v>
+        <v>0.4818617372616245</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.229198018035646</v>
+        <v>0.4366222356240428</v>
       </c>
       <c r="C9">
-        <v>0.5069789966512417</v>
+        <v>0.1650208782557172</v>
       </c>
       <c r="D9">
-        <v>0.0688422227880352</v>
+        <v>0.06819933090913466</v>
       </c>
       <c r="E9">
-        <v>1.818548532074473</v>
+        <v>0.5184239506268256</v>
       </c>
       <c r="F9">
-        <v>3.074599779716664</v>
+        <v>2.00485337260605</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.9158886500162</v>
+        <v>1.396362469679786</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.732288743826132</v>
+        <v>0.5971885363222498</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.488062021915709</v>
+        <v>0.4968292398426399</v>
       </c>
       <c r="C10">
-        <v>0.6166046203905182</v>
+        <v>0.1912740684740584</v>
       </c>
       <c r="D10">
-        <v>0.0708650606298491</v>
+        <v>0.06939370025285996</v>
       </c>
       <c r="E10">
-        <v>2.229211539042666</v>
+        <v>0.6149319374782181</v>
       </c>
       <c r="F10">
-        <v>3.583677593162292</v>
+        <v>2.129796567972107</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.197893653085913</v>
+        <v>1.466958043331005</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.100317945990355</v>
+        <v>0.6836555483528173</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.609421782184143</v>
+        <v>0.5245289083198088</v>
       </c>
       <c r="C11">
-        <v>0.6683846002153757</v>
+        <v>0.2033083033278729</v>
       </c>
       <c r="D11">
-        <v>0.0718645616424709</v>
+        <v>0.06993219330966838</v>
       </c>
       <c r="E11">
-        <v>2.425304827340142</v>
+        <v>0.6590511050089987</v>
       </c>
       <c r="F11">
-        <v>3.824729177521903</v>
+        <v>2.187462106484872</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.331657404740611</v>
+        <v>1.499545009991337</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.273265788937323</v>
+        <v>0.7233856272117123</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.655999503625594</v>
+        <v>0.5350634907247525</v>
       </c>
       <c r="C12">
-        <v>0.6883233159381916</v>
+        <v>0.2078790215188917</v>
       </c>
       <c r="D12">
-        <v>0.0722569957059207</v>
+        <v>0.07013545783409114</v>
       </c>
       <c r="E12">
-        <v>2.501192445844254</v>
+        <v>0.6757920739398457</v>
       </c>
       <c r="F12">
-        <v>3.917612667688189</v>
+        <v>2.209419891174662</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.383236175273083</v>
+        <v>1.511954190808552</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.339712430428392</v>
+        <v>0.7384885023147376</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.64593869371177</v>
+        <v>0.5327926550979782</v>
       </c>
       <c r="C13">
-        <v>0.6840134533956075</v>
+        <v>0.2068940227618157</v>
       </c>
       <c r="D13">
-        <v>0.07217181216925894</v>
+        <v>0.0700917094420106</v>
       </c>
       <c r="E13">
-        <v>2.484770799468038</v>
+        <v>0.6721850501930078</v>
       </c>
       <c r="F13">
-        <v>3.89753303499063</v>
+        <v>2.20468547152359</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.372084187042674</v>
+        <v>1.509278554078094</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.325356656005681</v>
+        <v>0.7352332334718028</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.613240653363704</v>
+        <v>0.5253946831734027</v>
       </c>
       <c r="C14">
-        <v>0.67001798726929</v>
+        <v>0.2036840635829549</v>
       </c>
       <c r="D14">
-        <v>0.07189655168917142</v>
+        <v>0.06994892880299375</v>
       </c>
       <c r="E14">
-        <v>2.431513551492401</v>
+        <v>0.6604276972342262</v>
       </c>
       <c r="F14">
-        <v>3.832337128448131</v>
+        <v>2.189266148174369</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.335881411379518</v>
+        <v>1.500564526718051</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.278712245343257</v>
+        <v>0.724626982252687</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.593296438648508</v>
+        <v>0.5208691308151572</v>
       </c>
       <c r="C15">
-        <v>0.6614902555726303</v>
+        <v>0.2017196575122</v>
       </c>
       <c r="D15">
-        <v>0.07172984625235301</v>
+        <v>0.06986138804505515</v>
       </c>
       <c r="E15">
-        <v>2.399114162293003</v>
+        <v>0.653230489394474</v>
       </c>
       <c r="F15">
-        <v>3.792619228541923</v>
+        <v>2.179837197392175</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.313831119784894</v>
+        <v>1.495235982498414</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.250270756545831</v>
+        <v>0.7181379260845517</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.480211832995963</v>
+        <v>0.4950253117592354</v>
       </c>
       <c r="C16">
-        <v>0.6132637074734646</v>
+        <v>0.190489483239304</v>
       </c>
       <c r="D16">
-        <v>0.07080154338284927</v>
+        <v>0.06935841496847672</v>
       </c>
       <c r="E16">
-        <v>2.216607270012375</v>
+        <v>0.6120532520446602</v>
       </c>
       <c r="F16">
-        <v>3.56813461145569</v>
+        <v>2.126044825968222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.189273402053104</v>
+        <v>1.464838025116492</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.089139767051307</v>
+        <v>0.6810671472083811</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.411829237010693</v>
+        <v>0.4792510712152307</v>
       </c>
       <c r="C17">
-        <v>0.5842047336572875</v>
+        <v>0.1836238972719286</v>
       </c>
       <c r="D17">
-        <v>0.07025403724592394</v>
+        <v>0.06904865079529543</v>
       </c>
       <c r="E17">
-        <v>2.107216733055438</v>
+        <v>0.5868499337547206</v>
       </c>
       <c r="F17">
-        <v>3.433006057932801</v>
+        <v>2.093258495743044</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.114355884381695</v>
+        <v>1.446311801886011</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.991813452296526</v>
+        <v>0.6584275321428663</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.372829279659783</v>
+        <v>0.4702074018721021</v>
       </c>
       <c r="C18">
-        <v>0.5676667887044573</v>
+        <v>0.1796835811860547</v>
       </c>
       <c r="D18">
-        <v>0.0699464137703103</v>
+        <v>0.06887002524356234</v>
       </c>
       <c r="E18">
-        <v>2.045151074175294</v>
+        <v>0.5723739275611877</v>
       </c>
       <c r="F18">
-        <v>3.356158621421486</v>
+        <v>2.074478504083658</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.071771590340177</v>
+        <v>1.435700425350149</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.936343470714775</v>
+        <v>0.6454430153351609</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.359678668279656</v>
+        <v>0.4671503786114215</v>
       </c>
       <c r="C19">
-        <v>0.5620959925280715</v>
+        <v>0.1783509190750294</v>
       </c>
       <c r="D19">
-        <v>0.06984343934007597</v>
+        <v>0.06880946581604519</v>
       </c>
       <c r="E19">
-        <v>2.024275015048474</v>
+        <v>0.5674759995104637</v>
       </c>
       <c r="F19">
-        <v>3.330282916934095</v>
+        <v>2.068133229986927</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.057436374977556</v>
+        <v>1.432115186909144</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.917645329819408</v>
+        <v>0.641053037322223</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.419073630849482</v>
+        <v>0.4809272340358746</v>
       </c>
       <c r="C20">
-        <v>0.5872795179475077</v>
+        <v>0.1843538585956992</v>
       </c>
       <c r="D20">
-        <v>0.07031154903397407</v>
+        <v>0.0690816727439767</v>
       </c>
       <c r="E20">
-        <v>2.118771294822537</v>
+        <v>0.5895307515949781</v>
       </c>
       <c r="F20">
-        <v>3.447298542555018</v>
+        <v>2.096740586249979</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.122277653454759</v>
+        <v>1.448279344114781</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.002120190341856</v>
+        <v>0.660833701224476</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.622827088173835</v>
+        <v>0.527566412292515</v>
       </c>
       <c r="C21">
-        <v>0.6741193253219535</v>
+        <v>0.204626533255805</v>
       </c>
       <c r="D21">
-        <v>0.07197700127004225</v>
+        <v>0.06999088425916256</v>
       </c>
       <c r="E21">
-        <v>2.447109575940942</v>
+        <v>0.6638801718570875</v>
       </c>
       <c r="F21">
-        <v>3.85144114932001</v>
+        <v>2.193791874659865</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.34648872740533</v>
+        <v>1.503122159732513</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.292385516657305</v>
+        <v>0.7277407139966385</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.759674440108398</v>
+        <v>0.5583122419030531</v>
       </c>
       <c r="C22">
-        <v>0.7328352270093035</v>
+        <v>0.2179554705475084</v>
       </c>
       <c r="D22">
-        <v>0.07314829924665389</v>
+        <v>0.07058133181671877</v>
       </c>
       <c r="E22">
-        <v>2.671387504234275</v>
+        <v>0.712671296246981</v>
       </c>
       <c r="F22">
-        <v>4.125052668686408</v>
+        <v>2.257927289824693</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.498497442549308</v>
+        <v>1.539369063414696</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.48775137541179</v>
+        <v>0.7718066299605084</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.686260775381754</v>
+        <v>0.5418782262478885</v>
       </c>
       <c r="C23">
-        <v>0.7012969582791868</v>
+        <v>0.2108341331743304</v>
       </c>
       <c r="D23">
-        <v>0.07251460593272441</v>
+        <v>0.07026652974286662</v>
       </c>
       <c r="E23">
-        <v>2.550686039722279</v>
+        <v>0.686611377141304</v>
       </c>
       <c r="F23">
-        <v>3.978063756692052</v>
+        <v>2.223631675065747</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.416815383344456</v>
+        <v>1.519986036632432</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.382903119581044</v>
+        <v>0.7482565151437655</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.415797469619577</v>
+        <v>0.4801693625250039</v>
       </c>
       <c r="C24">
-        <v>0.5858888873996193</v>
+        <v>0.1840238219345451</v>
       </c>
       <c r="D24">
-        <v>0.0702855258856161</v>
+        <v>0.06906674519893841</v>
       </c>
       <c r="E24">
-        <v>2.113544931168249</v>
+        <v>0.5883187113625468</v>
       </c>
       <c r="F24">
-        <v>3.440834312260421</v>
+        <v>2.095166117392637</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.118694715544237</v>
+        <v>1.447389695021698</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.997459017583907</v>
+        <v>0.6597457747720341</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136454653728038</v>
+        <v>0.4147224710025341</v>
       </c>
       <c r="C25">
-        <v>0.4679762132736869</v>
+        <v>0.1554309907689628</v>
       </c>
       <c r="D25">
-        <v>0.06815305302833252</v>
+        <v>0.06775491684362578</v>
       </c>
       <c r="E25">
-        <v>1.673847730472076</v>
+        <v>0.4830581212896021</v>
       </c>
       <c r="F25">
-        <v>2.894108458332653</v>
+        <v>1.95956267409062</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.816086438507142</v>
+        <v>1.370775727204389</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.600725622516279</v>
+        <v>0.5656901078249632</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3674614980064348</v>
+        <v>0.9382513506980388</v>
       </c>
       <c r="C2">
-        <v>0.1346372942845164</v>
+        <v>0.3851108608772336</v>
       </c>
       <c r="D2">
-        <v>0.06677200631255076</v>
+        <v>0.06674215183067744</v>
       </c>
       <c r="E2">
-        <v>0.4060931560985637</v>
+        <v>1.368732398517324</v>
       </c>
       <c r="F2">
-        <v>1.862171915237468</v>
+        <v>2.512317977743621</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.315761505247679</v>
+        <v>1.605348955805624</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4976014749059061</v>
+        <v>1.32008309436813</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3359955865645929</v>
+        <v>0.8072827098243351</v>
       </c>
       <c r="C3">
-        <v>0.1206964374743222</v>
+        <v>0.3307272522356186</v>
       </c>
       <c r="D3">
-        <v>0.06609435825877341</v>
+        <v>0.06585579013900045</v>
       </c>
       <c r="E3">
-        <v>0.3542110107288039</v>
+        <v>1.170122558870247</v>
       </c>
       <c r="F3">
-        <v>1.797652293064999</v>
+        <v>2.263467010874095</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.279320014550251</v>
+        <v>1.468311740862205</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4521574689581485</v>
+        <v>1.135040915033898</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3169488502687443</v>
+        <v>0.7281531654088553</v>
       </c>
       <c r="C4">
-        <v>0.1122080978610995</v>
+        <v>0.2980171574632777</v>
       </c>
       <c r="D4">
-        <v>0.06567230349913444</v>
+        <v>0.0653378789499186</v>
       </c>
       <c r="E4">
-        <v>0.3224739158650181</v>
+        <v>1.051256509466057</v>
       </c>
       <c r="F4">
-        <v>1.75875393034174</v>
+        <v>2.114682194505122</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.257351274567412</v>
+        <v>1.386525191749072</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.424592391364115</v>
+        <v>1.023400741766437</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3092554506760052</v>
+        <v>0.6961815493118593</v>
       </c>
       <c r="C5">
-        <v>0.1087665882746478</v>
+        <v>0.2848332816324159</v>
       </c>
       <c r="D5">
-        <v>0.06549876890357709</v>
+        <v>0.065132376709375</v>
       </c>
       <c r="E5">
-        <v>0.3095682165934761</v>
+        <v>1.003468291631521</v>
       </c>
       <c r="F5">
-        <v>1.743081029428765</v>
+        <v>2.054943875634692</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.248499934283075</v>
+        <v>1.353722342362914</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4134434422689708</v>
+        <v>0.9783286191502896</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3079820794124544</v>
+        <v>0.6908879079071539</v>
       </c>
       <c r="C6">
-        <v>0.1081961771710098</v>
+        <v>0.282652208615076</v>
       </c>
       <c r="D6">
-        <v>0.06546985916762793</v>
+        <v>0.06509855940226572</v>
       </c>
       <c r="E6">
-        <v>0.3074268207168132</v>
+        <v>0.9955690141928244</v>
       </c>
       <c r="F6">
-        <v>1.740489285127637</v>
+        <v>2.045075098220835</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.24703624971238</v>
+        <v>1.34830538488103</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4115972184579277</v>
+        <v>0.970867868502495</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3168448184519548</v>
+        <v>0.7277209357898187</v>
       </c>
       <c r="C7">
-        <v>0.11216161388964</v>
+        <v>0.2978387970760821</v>
       </c>
       <c r="D7">
-        <v>0.06566996945730708</v>
+        <v>0.06533508632825047</v>
       </c>
       <c r="E7">
-        <v>0.3222997572284498</v>
+        <v>1.050609540760107</v>
       </c>
       <c r="F7">
-        <v>1.758541839760355</v>
+        <v>2.113873073740308</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.257231494432844</v>
+        <v>1.386080755369093</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4244416935987658</v>
+        <v>1.022791267918421</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3565550016713814</v>
+        <v>0.8927955186433394</v>
       </c>
       <c r="C8">
-        <v>0.1298154225431745</v>
+        <v>0.3662016558824064</v>
       </c>
       <c r="D8">
-        <v>0.06653956872931843</v>
+        <v>0.0664303922354037</v>
       </c>
       <c r="E8">
-        <v>0.3881780573897942</v>
+        <v>1.299533102271894</v>
       </c>
       <c r="F8">
-        <v>1.839775648506262</v>
+        <v>2.425608632148723</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.30311142993385</v>
+        <v>1.557567922895927</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4818617372616245</v>
+        <v>1.255822961687642</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4366222356240428</v>
+        <v>1.229198018035675</v>
       </c>
       <c r="C9">
-        <v>0.1650208782557172</v>
+        <v>0.5069789966514406</v>
       </c>
       <c r="D9">
-        <v>0.06819933090913466</v>
+        <v>0.06884222278811336</v>
       </c>
       <c r="E9">
-        <v>0.5184239506268256</v>
+        <v>1.818548532074516</v>
       </c>
       <c r="F9">
-        <v>2.00485337260605</v>
+        <v>3.074599779716721</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.396362469679786</v>
+        <v>1.915888650016257</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5971885363222498</v>
+        <v>1.732288743826103</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4968292398426399</v>
+        <v>1.488062021915567</v>
       </c>
       <c r="C10">
-        <v>0.1912740684740584</v>
+        <v>0.616604620390234</v>
       </c>
       <c r="D10">
-        <v>0.06939370025285996</v>
+        <v>0.07086506062964304</v>
       </c>
       <c r="E10">
-        <v>0.6149319374782181</v>
+        <v>2.229211539042694</v>
       </c>
       <c r="F10">
-        <v>2.129796567972107</v>
+        <v>3.583677593162292</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.466958043331005</v>
+        <v>2.197893653085913</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6836555483528173</v>
+        <v>2.100317945990469</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5245289083198088</v>
+        <v>1.609421782184228</v>
       </c>
       <c r="C11">
-        <v>0.2033083033278729</v>
+        <v>0.6683846002153757</v>
       </c>
       <c r="D11">
-        <v>0.06993219330966838</v>
+        <v>0.07186456164232879</v>
       </c>
       <c r="E11">
-        <v>0.6590511050089987</v>
+        <v>2.425304827340213</v>
       </c>
       <c r="F11">
-        <v>2.187462106484872</v>
+        <v>3.824729177521903</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.499545009991337</v>
+        <v>2.331657404740625</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7233856272117123</v>
+        <v>2.273265788937266</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5350634907247525</v>
+        <v>1.655999503625623</v>
       </c>
       <c r="C12">
-        <v>0.2078790215188917</v>
+        <v>0.6883233159381916</v>
       </c>
       <c r="D12">
-        <v>0.07013545783409114</v>
+        <v>0.07225699570614807</v>
       </c>
       <c r="E12">
-        <v>0.6757920739398457</v>
+        <v>2.501192445844225</v>
       </c>
       <c r="F12">
-        <v>2.209419891174662</v>
+        <v>3.917612667688218</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.511954190808552</v>
+        <v>2.383236175273083</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7384885023147376</v>
+        <v>2.339712430428335</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5327926550979782</v>
+        <v>1.645938693711884</v>
       </c>
       <c r="C13">
-        <v>0.2068940227618157</v>
+        <v>0.6840134533955506</v>
       </c>
       <c r="D13">
-        <v>0.0700917094420106</v>
+        <v>0.07217181216940105</v>
       </c>
       <c r="E13">
-        <v>0.6721850501930078</v>
+        <v>2.484770799467924</v>
       </c>
       <c r="F13">
-        <v>2.20468547152359</v>
+        <v>3.897533034990602</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.509278554078094</v>
+        <v>2.372084187042688</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7352332334718028</v>
+        <v>2.325356656005624</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5253946831734027</v>
+        <v>1.613240653363761</v>
       </c>
       <c r="C14">
-        <v>0.2036840635829549</v>
+        <v>0.6700179872692615</v>
       </c>
       <c r="D14">
-        <v>0.06994892880299375</v>
+        <v>0.07189655168916431</v>
       </c>
       <c r="E14">
-        <v>0.6604276972342262</v>
+        <v>2.431513551492372</v>
       </c>
       <c r="F14">
-        <v>2.189266148174369</v>
+        <v>3.83233712844816</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.500564526718051</v>
+        <v>2.335881411379546</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.724626982252687</v>
+        <v>2.278712245343343</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5208691308151572</v>
+        <v>1.593296438648508</v>
       </c>
       <c r="C15">
-        <v>0.2017196575122</v>
+        <v>0.6614902555726019</v>
       </c>
       <c r="D15">
-        <v>0.06986138804505515</v>
+        <v>0.07172984625228906</v>
       </c>
       <c r="E15">
-        <v>0.653230489394474</v>
+        <v>2.399114162293046</v>
       </c>
       <c r="F15">
-        <v>2.179837197392175</v>
+        <v>3.79261922854198</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.495235982498414</v>
+        <v>2.313831119784936</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7181379260845517</v>
+        <v>2.250270756545802</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4950253117592354</v>
+        <v>1.480211832995934</v>
       </c>
       <c r="C16">
-        <v>0.190489483239304</v>
+        <v>0.6132637074734362</v>
       </c>
       <c r="D16">
-        <v>0.06935841496847672</v>
+        <v>0.07080154338306244</v>
       </c>
       <c r="E16">
-        <v>0.6120532520446602</v>
+        <v>2.216607270012403</v>
       </c>
       <c r="F16">
-        <v>2.126044825968222</v>
+        <v>3.56813461145569</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.464838025116492</v>
+        <v>2.189273402053104</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6810671472083811</v>
+        <v>2.089139767051279</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4792510712152307</v>
+        <v>1.411829237010835</v>
       </c>
       <c r="C17">
-        <v>0.1836238972719286</v>
+        <v>0.584204733657316</v>
       </c>
       <c r="D17">
-        <v>0.06904865079529543</v>
+        <v>0.07025403724572499</v>
       </c>
       <c r="E17">
-        <v>0.5868499337547206</v>
+        <v>2.107216733055409</v>
       </c>
       <c r="F17">
-        <v>2.093258495743044</v>
+        <v>3.433006057932801</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.446311801886011</v>
+        <v>2.114355884381709</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6584275321428663</v>
+        <v>1.991813452296526</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4702074018721021</v>
+        <v>1.372829279659982</v>
       </c>
       <c r="C18">
-        <v>0.1796835811860547</v>
+        <v>0.5676667887049121</v>
       </c>
       <c r="D18">
-        <v>0.06887002524356234</v>
+        <v>0.06994641377067268</v>
       </c>
       <c r="E18">
-        <v>0.5723739275611877</v>
+        <v>2.045151074175322</v>
       </c>
       <c r="F18">
-        <v>2.074478504083658</v>
+        <v>3.356158621421514</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.435700425350149</v>
+        <v>2.071771590340191</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6454430153351609</v>
+        <v>1.936343470714803</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4671503786114215</v>
+        <v>1.359678668280026</v>
       </c>
       <c r="C19">
-        <v>0.1783509190750294</v>
+        <v>0.5620959925285547</v>
       </c>
       <c r="D19">
-        <v>0.06880946581604519</v>
+        <v>0.06984343934029624</v>
       </c>
       <c r="E19">
-        <v>0.5674759995104637</v>
+        <v>2.024275015048488</v>
       </c>
       <c r="F19">
-        <v>2.068133229986927</v>
+        <v>3.330282916934124</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.432115186909144</v>
+        <v>2.057436374977584</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.641053037322223</v>
+        <v>1.917645329819408</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4809272340358746</v>
+        <v>1.419073630849368</v>
       </c>
       <c r="C20">
-        <v>0.1843538585956992</v>
+        <v>0.5872795179472803</v>
       </c>
       <c r="D20">
-        <v>0.0690816727439767</v>
+        <v>0.07031154903411618</v>
       </c>
       <c r="E20">
-        <v>0.5895307515949781</v>
+        <v>2.118771294822523</v>
       </c>
       <c r="F20">
-        <v>2.096740586249979</v>
+        <v>3.447298542555046</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.448279344114781</v>
+        <v>2.122277653454759</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.660833701224476</v>
+        <v>2.002120190341799</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.527566412292515</v>
+        <v>1.622827088173807</v>
       </c>
       <c r="C21">
-        <v>0.204626533255805</v>
+        <v>0.6741193253214988</v>
       </c>
       <c r="D21">
-        <v>0.06999088425916256</v>
+        <v>0.07197700127012041</v>
       </c>
       <c r="E21">
-        <v>0.6638801718570875</v>
+        <v>2.447109575940928</v>
       </c>
       <c r="F21">
-        <v>2.193791874659865</v>
+        <v>3.85144114932001</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.503122159732513</v>
+        <v>2.346488727405301</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7277407139966385</v>
+        <v>2.29238551665722</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5583122419030531</v>
+        <v>1.759674440108569</v>
       </c>
       <c r="C22">
-        <v>0.2179554705475084</v>
+        <v>0.7328352270092751</v>
       </c>
       <c r="D22">
-        <v>0.07058133181671877</v>
+        <v>0.07314829924665389</v>
       </c>
       <c r="E22">
-        <v>0.712671296246981</v>
+        <v>2.671387504234275</v>
       </c>
       <c r="F22">
-        <v>2.257927289824693</v>
+        <v>4.125052668686465</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.539369063414696</v>
+        <v>2.498497442549308</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7718066299605084</v>
+        <v>2.487751375411818</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5418782262478885</v>
+        <v>1.686260775381726</v>
       </c>
       <c r="C23">
-        <v>0.2108341331743304</v>
+        <v>0.7012969582792152</v>
       </c>
       <c r="D23">
-        <v>0.07026652974286662</v>
+        <v>0.07251460593278836</v>
       </c>
       <c r="E23">
-        <v>0.686611377141304</v>
+        <v>2.550686039722237</v>
       </c>
       <c r="F23">
-        <v>2.223631675065747</v>
+        <v>3.978063756692023</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.519986036632432</v>
+        <v>2.416815383344485</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7482565151437655</v>
+        <v>2.382903119580988</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4801693625250039</v>
+        <v>1.41579746961952</v>
       </c>
       <c r="C24">
-        <v>0.1840238219345451</v>
+        <v>0.5858888873993635</v>
       </c>
       <c r="D24">
-        <v>0.06906674519893841</v>
+        <v>0.0702855258856161</v>
       </c>
       <c r="E24">
-        <v>0.5883187113625468</v>
+        <v>2.113544931168207</v>
       </c>
       <c r="F24">
-        <v>2.095166117392637</v>
+        <v>3.440834312260392</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.447389695021698</v>
+        <v>2.118694715544265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6597457747720341</v>
+        <v>1.997459017584021</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4147224710025341</v>
+        <v>1.136454653727867</v>
       </c>
       <c r="C25">
-        <v>0.1554309907689628</v>
+        <v>0.4679762132736869</v>
       </c>
       <c r="D25">
-        <v>0.06775491684362578</v>
+        <v>0.06815305302819752</v>
       </c>
       <c r="E25">
-        <v>0.4830581212896021</v>
+        <v>1.673847730472048</v>
       </c>
       <c r="F25">
-        <v>1.95956267409062</v>
+        <v>2.894108458332624</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.370775727204389</v>
+        <v>1.816086438507142</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5656901078249632</v>
+        <v>1.600725622516222</v>
       </c>
       <c r="L25">
         <v>0</v>
